--- a/results/tra_val_results/df_tra_val_all_09_01_2010-02-24.xlsx
+++ b/results/tra_val_results/df_tra_val_all_09_01_2010-02-24.xlsx
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G2" t="n">
         <v>20</v>
@@ -581,34 +581,34 @@
         <v>100</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6835764646530151</v>
+        <v>0.6846234202384949</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6971391439437866</v>
+        <v>0.6956995725631714</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5818984508514404</v>
+        <v>0.5757174491882324</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5555555820465088</v>
+        <v>0.5370370149612427</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5818984508514404</v>
+        <v>0.5792494416236877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5787037014961243</v>
+        <v>0.5740740895271301</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6024323701858521</v>
+        <v>0.5982227325439453</v>
       </c>
       <c r="U2" t="n">
-        <v>0.5341865420341492</v>
+        <v>0.5373860597610474</v>
       </c>
     </row>
   </sheetData>

--- a/results/tra_val_results/df_tra_val_all_09_01_2010-02-24.xlsx
+++ b/results/tra_val_results/df_tra_val_all_09_01_2010-02-24.xlsx
@@ -581,10 +581,10 @@
         <v>100</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6846234202384949</v>
+        <v>0.6847077012062073</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6956995725631714</v>
+        <v>0.6949049830436707</v>
       </c>
       <c r="N2" t="n">
         <v>0.5757174491882324</v>
